--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,106 @@
           <t>Клинок Хаоса</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Нож бандита</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Кинжал</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Парирующий кинжал</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Призрачный клинок</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Кинжал Присциллы</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Тёмный Серебряный След</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Большой меч</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Двуручный меч</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Демоническое мачете</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Большой меч Черного Рыцаря</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Большой меч дракона</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Легкий арбалет</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Тяжелый арбалет</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Меткий арбалет</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Авелин</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Асторский прямой меч</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Меч дракона</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Балдерский меч</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Большой лунный меч</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Меч Черного Рыцаря</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -501,6 +601,106 @@
           <t>0</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -538,6 +738,106 @@
           <t>1</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -575,6 +875,106 @@
           <t>1</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -610,6 +1010,380 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>черный рыцарь</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>я использую ВСЁ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
